--- a/Data/regression_data/PpD/regression_PpD.xlsx
+++ b/Data/regression_data/PpD/regression_PpD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B451"/>
+  <dimension ref="A1:B452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2047,2001 +2047,2009 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>5.308603967342242</v>
+        <v>5.31101693276688</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>5.30613196716526</v>
+        <v>5.308603967342242</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>5.303599573312544</v>
+        <v>5.30613196716526</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>5.301005399920881</v>
+        <v>5.303599573312544</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>5.298348033877975</v>
+        <v>5.301005399920881</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>5.295626034522412</v>
+        <v>5.298348033877975</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>5.292837933353751</v>
+        <v>5.295626034522412</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>5.289982233753726</v>
+        <v>5.292837933353751</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>5.287057410719545</v>
+        <v>5.289982233753726</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>5.284061910610365</v>
+        <v>5.287057410719545</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>5.280994150908022</v>
+        <v>5.284061910610365</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>5.277852519993197</v>
+        <v>5.280994150908022</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>5.274635376938193</v>
+        <v>5.277852519993197</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>5.271341051317592</v>
+        <v>5.274635376938193</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>5.267967843038102</v>
+        <v>5.271341051317592</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>5.264514022188933</v>
+        <v>5.267967843038102</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>5.260977828914133</v>
+        <v>5.264514022188933</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>5.257357473308353</v>
+        <v>5.260977828914133</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>5.25365113533754</v>
+        <v>5.257357473308353</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>5.249856964786161</v>
+        <v>5.25365113533754</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>5.245973081232589</v>
+        <v>5.249856964786161</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>5.241997574054323</v>
+        <v>5.245973081232589</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>5.237928502464812</v>
+        <v>5.241997574054323</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>5.233763895583682</v>
+        <v>5.237928502464812</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>5.229501752542214</v>
+        <v>5.233763895583682</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>5.22514004262601</v>
+        <v>5.229501752542214</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>5.2206767054568</v>
+        <v>5.22514004262601</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>5.216109651215435</v>
+        <v>5.2206767054568</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>5.211436760908138</v>
+        <v>5.216109651215435</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>5.206655886678141</v>
+        <v>5.211436760908138</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>5.201764852164903</v>
+        <v>5.206655886678141</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>5.196761452913138</v>
+        <v>5.201764852164903</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>5.191643456833924</v>
+        <v>5.196761452913138</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>5.186408604720234</v>
+        <v>5.191643456833924</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>5.181054610819236</v>
+        <v>5.186408604720234</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>5.175579163463767</v>
+        <v>5.181054610819236</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>5.169979925765428</v>
+        <v>5.175579163463767</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>5.164254536371759</v>
+        <v>5.169979925765428</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>5.158400610289973</v>
+        <v>5.164254536371759</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>5.152415739779783</v>
+        <v>5.158400610289973</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>5.14629749531783</v>
+        <v>5.152415739779783</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>5.140043426636253</v>
+        <v>5.14629749531783</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>5.133651063837931</v>
+        <v>5.140043426636253</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>5.127117918590937</v>
+        <v>5.133651063837931</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>5.120441485404704</v>
+        <v>5.127117918590937</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>5.113619242990418</v>
+        <v>5.120441485404704</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>5.106648655708088</v>
+        <v>5.113619242990418</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>5.099527175102715</v>
+        <v>5.106648655708088</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>5.09225224153195</v>
+        <v>5.099527175102715</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>5.084821285887529</v>
+        <v>5.09225224153195</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>5.077231731412745</v>
+        <v>5.084821285887529</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>5.069480995618091</v>
+        <v>5.077231731412745</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>5.061566492297147</v>
+        <v>5.069480995618091</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>5.053485633644638</v>
+        <v>5.061566492297147</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>5.045235832478486</v>
+        <v>5.053485633644638</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>5.036814504567528</v>
+        <v>5.045235832478486</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>5.028219071066429</v>
+        <v>5.036814504567528</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>5.019446961059118</v>
+        <v>5.028219071066429</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>5.010495614211912</v>
+        <v>5.019446961059118</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>5.001362483537287</v>
+        <v>5.010495614211912</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>4.992045038268998</v>
+        <v>5.001362483537287</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>4.982540766849047</v>
+        <v>4.992045038268998</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>4.972847180026712</v>
+        <v>4.982540766849047</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>4.962961814069576</v>
+        <v>4.972847180026712</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>4.952882234086195</v>
+        <v>4.962961814069576</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>4.942606037459713</v>
+        <v>4.952882234086195</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>4.932130857391431</v>
+        <v>4.942606037459713</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>4.921454366552906</v>
+        <v>4.932130857391431</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>4.910574280844868</v>
+        <v>4.921454366552906</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>4.899488363260748</v>
+        <v>4.910574280844868</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>4.888194427852292</v>
+        <v>4.899488363260748</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>4.876690343794187</v>
+        <v>4.888194427852292</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>4.8649740395443</v>
+        <v>4.876690343794187</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>4.853043507095521</v>
+        <v>4.8649740395443</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>4.840896806314833</v>
+        <v>4.853043507095521</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>4.828532069364639</v>
+        <v>4.840896806314833</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>4.815947505200907</v>
+        <v>4.828532069364639</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>4.803141404142149</v>
+        <v>4.815947505200907</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>4.79011214250268</v>
+        <v>4.803141404142149</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>4.776858187283105</v>
+        <v>4.79011214250268</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>4.763378100910353</v>
+        <v>4.776858187283105</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>4.749670546019067</v>
+        <v>4.763378100910353</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>4.735734290265553</v>
+        <v>4.749670546019067</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>4.721568211164931</v>
+        <v>4.735734290265553</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>4.707171300941569</v>
+        <v>4.721568211164931</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>4.692542671382292</v>
+        <v>4.707171300941569</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>4.677681558681334</v>
+        <v>4.692542671382292</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>4.662587328265424</v>
+        <v>4.677681558681334</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>4.647259479586889</v>
+        <v>4.662587328265424</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>4.631697650872125</v>
+        <v>4.647259479586889</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>4.615901623812312</v>
+        <v>4.631697650872125</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>4.599871328182775</v>
+        <v>4.615901623812312</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>4.58360684637696</v>
+        <v>4.599871328182775</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>4.567108417840592</v>
+        <v>4.58360684637696</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>4.550376443391213</v>
+        <v>4.567108417840592</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>4.533411489407995</v>
+        <v>4.550376443391213</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>4.516214291876429</v>
+        <v>4.533411489407995</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>4.498785760272265</v>
+        <v>4.516214291876429</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>4.481126981268933</v>
+        <v>4.498785760272265</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>4.463239222252536</v>
+        <v>4.481126981268933</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>4.445123934628468</v>
+        <v>4.463239222252536</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>4.426782756903735</v>
+        <v>4.445123934628468</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>4.408217517529126</v>
+        <v>4.426782756903735</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>4.389430237485549</v>
+        <v>4.408217517529126</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>4.370423132599088</v>
+        <v>4.389430237485549</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>4.351198615569642</v>
+        <v>4.370423132599088</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>4.331759297698381</v>
+        <v>4.351198615569642</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>4.312107990299769</v>
+        <v>4.331759297698381</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>4.292247705784422</v>
+        <v>4.312107990299769</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>4.272181658399738</v>
+        <v>4.292247705784422</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>4.251913264615932</v>
+        <v>4.272181658399738</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>4.231446143145939</v>
+        <v>4.251913264615932</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>4.210784114588544</v>
+        <v>4.231446143145939</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>4.189931200685048</v>
+        <v>4.210784114588544</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>4.168891623180836</v>
+        <v>4.189931200685048</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>4.147669802284367</v>
+        <v>4.168891623180836</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>4.126270354717261</v>
+        <v>4.147669802284367</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>4.104698091350477</v>
+        <v>4.126270354717261</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>4.082958014422859</v>
+        <v>4.104698091350477</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>4.061055314339756</v>
+        <v>4.082958014422859</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>4.038995366050856</v>
+        <v>4.061055314339756</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>4.01678372500785</v>
+        <v>4.038995366050856</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>3.994426122704082</v>
+        <v>4.01678372500785</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>3.971928461799905</v>
+        <v>3.994426122704082</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>3.949296810839033</v>
+        <v>3.971928461799905</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>3.926537398562781</v>
+        <v>3.949296810839033</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>3.903656607830686</v>
+        <v>3.926537398562781</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>3.880660969157599</v>
+        <v>3.903656607830686</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>3.857557153878931</v>
+        <v>3.880660969157599</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>3.834351966957268</v>
+        <v>3.857557153878931</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>3.811052339445144</v>
+        <v>3.834351966957268</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>3.787665320620204</v>
+        <v>3.811052339445144</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>3.764198069810444</v>
+        <v>3.787665320620204</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>3.740657847928597</v>
+        <v>3.764198069810444</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>3.717052008735998</v>
+        <v>3.740657847928597</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>3.693387989857533</v>
+        <v>3.717052008735998</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>3.669673303570381</v>
+        <v>3.693387989857533</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>3.645915527390293</v>
+        <v>3.669673303570381</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>3.622122294480117</v>
+        <v>3.645915527390293</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>3.598301283906082</v>
+        <v>3.622122294480117</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>3.574460210768074</v>
+        <v>3.598301283906082</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>3.550606816230728</v>
+        <v>3.574460210768074</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>3.526748857482626</v>
+        <v>3.550606816230728</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>3.502894097651253</v>
+        <v>3.526748857482626</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>3.479050295701518</v>
+        <v>3.502894097651253</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>3.455225196345799</v>
+        <v>3.479050295701518</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>3.431426519993346</v>
+        <v>3.455225196345799</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>3.407661952766741</v>
+        <v>3.431426519993346</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>3.383939136612772</v>
+        <v>3.407661952766741</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>3.36026565953463</v>
+        <v>3.383939136612772</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>3.336649045971784</v>
+        <v>3.36026565953463</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>3.313096747353187</v>
+        <v>3.336649045971784</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>3.289616132848653</v>
+        <v>3.313096747353187</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>3.26621448034234</v>
+        <v>3.289616132848653</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>3.242898967651244</v>
+        <v>3.26621448034234</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>3.219676664010484</v>
+        <v>3.242898967651244</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>3.19655452184597</v>
+        <v>3.219676664010484</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>3.173539368853731</v>
+        <v>3.19655452184597</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>3.150637900403849</v>
+        <v>3.173539368853731</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>3.127856672285478</v>
+        <v>3.150637900403849</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>3.105202093808017</v>
+        <v>3.127856672285478</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>3.082680421271898</v>
+        <v>3.105202093808017</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>3.060297751820981</v>
+        <v>3.082680421271898</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>3.038060017686895</v>
+        <v>3.060297751820981</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>3.01597298083412</v>
+        <v>3.038060017686895</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>2.994042228012976</v>
+        <v>3.01597298083412</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>2.972273166226091</v>
+        <v>2.994042228012976</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>2.950671018612337</v>
+        <v>2.972273166226091</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>2.92924082075068</v>
+        <v>2.950671018612337</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>2.907987417384801</v>
+        <v>2.92924082075068</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>2.886915459567919</v>
+        <v>2.907987417384801</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>2.866029402225734</v>
+        <v>2.886915459567919</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>2.845333502134044</v>
+        <v>2.866029402225734</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>2.824831816306233</v>
+        <v>2.845333502134044</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>2.804528200784545</v>
+        <v>2.824831816306233</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>2.784426309827849</v>
+        <v>2.804528200784545</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>2.764529595487465</v>
+        <v>2.784426309827849</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>2.744841307561546</v>
+        <v>2.764529595487465</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>2.725364493917528</v>
+        <v>2.744841307561546</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>2.706102001171264</v>
+        <v>2.725364493917528</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>2.687056475710611</v>
+        <v>2.706102001171264</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>2.668230365050541</v>
+        <v>2.687056475710611</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>2.649625919506134</v>
+        <v>2.668230365050541</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>2.631245194169299</v>
+        <v>2.649625919506134</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>2.613090051174539</v>
+        <v>2.631245194169299</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>2.595162162238684</v>
+        <v>2.613090051174539</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>2.577463011459201</v>
+        <v>2.595162162238684</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>2.559993898355414</v>
+        <v>2.577463011459201</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>2.542755941136824</v>
+        <v>2.559993898355414</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>2.525750080182612</v>
+        <v>2.542755941136824</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>2.508977081716364</v>
+        <v>2.525750080182612</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>2.492437541660117</v>
+        <v>2.508977081716364</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>2.476131889651908</v>
+        <v>2.492437541660117</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>2.460060393211182</v>
+        <v>2.476131889651908</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>2.444223162036621</v>
+        <v>2.460060393211182</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>2.428620152421225</v>
+        <v>2.444223162036621</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>2.413251171769781</v>
+        <v>2.428620152421225</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>2.398115883204246</v>
+        <v>2.413251171769781</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>2.383213810242894</v>
+        <v>2.398115883204246</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>2.36854434153961</v>
+        <v>2.383213810242894</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>2.354106735670065</v>
+        <v>2.36854434153961</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>2.339900125952069</v>
+        <v>2.354106735670065</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>2.325923525287887</v>
+        <v>2.339900125952069</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>2.312175831016815</v>
+        <v>2.325923525287887</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>2.298655829766871</v>
+        <v>2.312175831016815</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>2.285362202295028</v>
+        <v>2.298655829766871</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>2.272293528305926</v>
+        <v>2.285362202295028</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>2.259448291239654</v>
+        <v>2.272293528305926</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>2.246824883019661</v>
+        <v>2.259448291239654</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>2.234421608752533</v>
+        <v>2.246824883019661</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>2.222236691371843</v>
+        <v>2.234421608752533</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>2.210268276218929</v>
+        <v>2.222236691371843</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>2.198514435553944</v>
+        <v>2.210268276218929</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>2.186973172991109</v>
+        <v>2.198514435553944</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>2.175642427852615</v>
+        <v>2.186973172991109</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>2.164520079436155</v>
+        <v>2.175642427852615</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>2.153603951191561</v>
+        <v>2.164520079436155</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>2.142891814802526</v>
+        <v>2.153603951191561</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>2.132381394169848</v>
+        <v>2.142891814802526</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>2.122070369293131</v>
+        <v>2.132381394169848</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>2.111956380048251</v>
+        <v>2.122070369293131</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>2.1020370298584</v>
+        <v>2.111956380048251</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>2.092309889256838</v>
+        <v>2.1020370298584</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>2.082772499339941</v>
+        <v>2.092309889256838</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>2.073422375109441</v>
+        <v>2.082772499339941</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>2.064257008703124</v>
+        <v>2.073422375109441</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>2.055273872513574</v>
+        <v>2.064257008703124</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>2.046470422194838</v>
+        <v>2.055273872513574</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>2.037844099557196</v>
+        <v>2.046470422194838</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>2.02939233535047</v>
+        <v>2.037844099557196</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>2.021112551936541</v>
+        <v>2.02939233535047</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>2.013002165852012</v>
+        <v>2.021112551936541</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>2.005058590262103</v>
+        <v>2.013002165852012</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>1.997279237307128</v>
+        <v>2.005058590262103</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>1.989661520343006</v>
+        <v>1.997279237307128</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>1.982202856077495</v>
+        <v>1.989661520343006</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>1.974900666603898</v>
+        <v>1.982202856077495</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>1.967752381334202</v>
+        <v>1.974900666603898</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>1.96075543883366</v>
+        <v>1.967752381334202</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>1.953907288558957</v>
+        <v>1.96075543883366</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>1.947205392502198</v>
+        <v>1.953907288558957</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>1.940647226742998</v>
+        <v>1.947205392502198</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>1.934230282911051</v>
+        <v>1.940647226742998</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>1.927952069561586</v>
+        <v>1.934230282911051</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>1.921810113466171</v>
+        <v>1.927952069561586</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>1.915801960821359</v>
+        <v>1.921810113466171</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>1.909925178377672</v>
+        <v>1.915801960821359</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>1.904177354491483</v>
+        <v>1.909925178377672</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>1.898556100102293</v>
+        <v>1.904177354491483</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
+        <v>2049</v>
+      </c>
+      <c r="B451" t="n">
+        <v>1.898556100102293</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
         <v>2050</v>
       </c>
-      <c r="B451" t="n">
+      <c r="B452" t="n">
         <v>1.893059049637972</v>
       </c>
     </row>

--- a/Data/regression_data/PpD/regression_PpD.xlsx
+++ b/Data/regression_data/PpD/regression_PpD.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>5.406317932598492</v>
+        <v>5.406317916928036</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>5.406302469926878</v>
+        <v>5.406302454259599</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>5.406286607824292</v>
+        <v>5.406286592160261</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>5.406270335976174</v>
+        <v>5.406270320315464</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>5.406253643801794</v>
+        <v>5.406253628144478</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>5.406236520447392</v>
+        <v>5.406236504793548</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>5.406218954779145</v>
+        <v>5.40621893912885</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>5.406200935375951</v>
+        <v>5.406200919729285</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>5.406182450522024</v>
+        <v>5.406182434879067</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>5.406163488199308</v>
+        <v>5.406163472560143</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>5.406144036079686</v>
+        <v>5.406144020444398</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>5.406124081516996</v>
+        <v>5.406124065885672</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>5.40610361153884</v>
+        <v>5.406103595911568</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>5.406082612838181</v>
+        <v>5.406082597215052</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>5.406061071764729</v>
+        <v>5.406061056145835</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>5.406038974316097</v>
+        <v>5.406038958701533</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>5.406016306128744</v>
+        <v>5.406016290518605</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>5.405993052468669</v>
+        <v>5.405993036863054</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>5.405969198221882</v>
+        <v>5.405969182620893</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>5.405944727884621</v>
+        <v>5.40594471228836</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>5.405919625553319</v>
+        <v>5.405919609961891</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>5.40589387491432</v>
+        <v>5.405893859327832</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>5.405867459233325</v>
+        <v>5.405867443651887</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>5.405840361344569</v>
+        <v>5.405840345768292</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>5.405812563639723</v>
+        <v>5.405812548068723</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>5.405784048056513</v>
+        <v>5.405784032490906</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>5.405754796067041</v>
+        <v>5.405754780506945</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>5.405724788665812</v>
+        <v>5.405724773111351</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>5.40569400635746</v>
+        <v>5.405693990808758</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>5.405662429144146</v>
+        <v>5.40566241360133</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>5.405630036512647</v>
+        <v>5.405630020975846</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>5.405596807421107</v>
+        <v>5.405596791890455</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>5.405562720285456</v>
+        <v>5.405562704761089</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>5.405527752965474</v>
+        <v>5.40552773744753</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>5.405491882750507</v>
+        <v>5.405491867239126</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>5.405455086344809</v>
+        <v>5.405455070840137</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>5.405417339852521</v>
+        <v>5.405417324354706</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>5.40537861876226</v>
+        <v>5.405378603271451</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>5.405338897931311</v>
+        <v>5.405338882447664</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>5.405298151569428</v>
+        <v>5.405298136093099</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>5.405256353222209</v>
+        <v>5.405256337753357</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>5.405213475754055</v>
+        <v>5.405213460292845</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>5.405169491330692</v>
+        <v>5.405169475877291</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>5.405124371401252</v>
+        <v>5.405124355955832</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>5.40507808667989</v>
+        <v>5.405078071242625</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>5.405030607126942</v>
+        <v>5.40503059169801</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>5.404981901929596</v>
+        <v>5.404981886509179</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>5.404931939482079</v>
+        <v>5.404931924070363</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>5.404880687365334</v>
+        <v>5.404880671962507</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>5.404828112326182</v>
+        <v>5.40482809693244</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>5.404774180255962</v>
+        <v>5.404774164871501</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>5.404718856168616</v>
+        <v>5.404718840793637</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>5.40466210417823</v>
+        <v>5.404662088812941</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>5.404603887475998</v>
+        <v>5.404603872120609</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>5.40454416830661</v>
+        <v>5.404544152961336</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>5.40448290794403</v>
+        <v>5.404482892609089</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>5.40442006666667</v>
+        <v>5.404420051342286</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>5.404355603731935</v>
+        <v>5.404355588418338</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>5.404289477350124</v>
+        <v>5.404289462047545</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>5.404221644657665</v>
+        <v>5.404221629366343</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>5.404152061689681</v>
+        <v>5.40415204640986</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>5.404080683351865</v>
+        <v>5.404080668083791</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>5.404007463391638</v>
+        <v>5.404007448135565</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>5.403932354368584</v>
+        <v>5.40393233912477</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>5.403855307624139</v>
+        <v>5.403855292392848</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>5.40377627325052</v>
+        <v>5.403776258032021</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>5.403695200058869</v>
+        <v>5.403695184853436</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>5.403612035546595</v>
+        <v>5.403612020354509</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>5.403526725863896</v>
+        <v>5.403526710685443</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>5.403439215779447</v>
+        <v>5.403439200614918</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>5.403349448645216</v>
+        <v>5.403349433494909</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>5.403257366360402</v>
+        <v>5.403257351224621</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>5.403162909334482</v>
+        <v>5.403162894213536</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>5.403066016449308</v>
+        <v>5.403066001343513</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>5.40296662502028</v>
+        <v>5.40296660992996</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>5.402864670756538</v>
+        <v>5.402864655682022</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>5.402760087720161</v>
+        <v>5.402760072661784</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>5.402652808284347</v>
+        <v>5.402652793242452</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>5.402542763090557</v>
+        <v>5.402542748065494</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>5.402429881004586</v>
+        <v>5.40242986599671</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>5.402314089071546</v>
+        <v>5.402314074081222</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>5.402195312469726</v>
+        <v>5.402195297497324</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>5.402073474463314</v>
+        <v>5.402073459509213</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>5.40194849635394</v>
+        <v>5.401948481418525</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>5.401820297431025</v>
+        <v>5.401820282514691</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>5.401688794920894</v>
+        <v>5.401688780024042</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>5.401553903934649</v>
+        <v>5.401553889057688</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>5.40141553741473</v>
+        <v>5.401415522558076</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>5.401273606080183</v>
+        <v>5.401273591244263</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>5.401128018370572</v>
+        <v>5.40112800355582</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>5.400978680388508</v>
+        <v>5.400978665595366</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>5.400825495840772</v>
+        <v>5.400825481069693</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>5.400668365978004</v>
+        <v>5.400668351229446</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>5.400507189532894</v>
+        <v>5.400507174807326</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>5.400341862656885</v>
+        <v>5.400341847954786</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>5.400172278855318</v>
+        <v>5.400172264177175</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>5.399998328921005</v>
+        <v>5.399998314267315</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>5.39981990086618</v>
+        <v>5.39981988623745</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>5.399636879852801</v>
+        <v>5.399636865249548</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>5.399449148121165</v>
+        <v>5.399449133543913</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>5.399256584916787</v>
+        <v>5.399256570366074</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>5.399059066415528</v>
+        <v>5.399059051891898</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>5.398856465646898</v>
+        <v>5.398856451150911</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>5.398648652415536</v>
+        <v>5.398648637947758</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>5.398435493220787</v>
+        <v>5.398435478781797</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>5.398216851174356</v>
+        <v>5.398216836764742</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>5.397992585915998</v>
+        <v>5.397992571536363</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>5.397762553527197</v>
+        <v>5.397762539178149</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>5.397526606442775</v>
+        <v>5.397526592124941</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>5.397284593360425</v>
+        <v>5.397284579074437</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>5.397036359148076</v>
+        <v>5.397036344894581</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>5.396781744749086</v>
+        <v>5.396781730528744</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>5.396520587085193</v>
+        <v>5.396520572898673</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>5.396252718957179</v>
+        <v>5.396252704805166</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>5.395977968943212</v>
+        <v>5.395977954826401</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>5.395696161294809</v>
+        <v>5.395696147213908</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>5.395407115830361</v>
+        <v>5.395407101786092</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>5.3951106478262</v>
+        <v>5.395110633819297</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>5.394806567905124</v>
+        <v>5.394806553936337</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>5.394494681922358</v>
+        <v>5.394494667992447</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>5.394174790848878</v>
+        <v>5.394174776958618</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>5.39384669065206</v>
+        <v>5.393846676802239</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>5.393510172173597</v>
+        <v>5.393510158365019</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>5.393165021004636</v>
+        <v>5.393165007238117</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>5.392811017358071</v>
+        <v>5.392811003634445</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>5.392447935937953</v>
+        <v>5.392447922258064</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>5.392075545805949</v>
+        <v>5.39207553217066</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>5.391693610244809</v>
+        <v>5.391693596654995</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>5.391301886618773</v>
+        <v>5.391301873075326</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>5.39090012623088</v>
+        <v>5.390900112734708</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>5.390488074177107</v>
+        <v>5.390488060729131</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>5.390065469197285</v>
+        <v>5.390065455798444</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>5.389632043522763</v>
+        <v>5.389632030174011</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>5.389187522720714</v>
+        <v>5.389187509423021</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>5.388731625535084</v>
+        <v>5.388731612289437</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>5.388264063724087</v>
+        <v>5.388264050531489</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>5.387784541894208</v>
+        <v>5.387784528755678</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>5.387292757330663</v>
+        <v>5.387292744247239</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>5.386788399824252</v>
+        <v>5.386788386796989</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>5.386271151494554</v>
+        <v>5.386271138524522</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>5.385740686609415</v>
+        <v>5.385740673697701</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>5.385196671400664</v>
+        <v>5.385196658548376</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>5.384638763876032</v>
+        <v>5.384638751084292</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>5.384066613627179</v>
+        <v>5.38406660089713</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>5.383479861633826</v>
+        <v>5.383479848966627</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>5.382878140063909</v>
+        <v>5.382878127460737</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>5.38226107206972</v>
+        <v>5.382261059531773</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>5.381628271579994</v>
+        <v>5.381628259108485</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>5.380979343087881</v>
+        <v>5.380979330684044</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>5.380313881434774</v>
+        <v>5.380313869099861</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>5.379631471589952</v>
+        <v>5.379631459325233</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>5.378931688425983</v>
+        <v>5.378931676232748</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>5.378214096489869</v>
+        <v>5.378214084369427</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>5.377478249769889</v>
+        <v>5.377478237723568</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>5.376723691458108</v>
+        <v>5.376723679487254</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>5.375949953708525</v>
+        <v>5.375949941814505</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>5.375156557390837</v>
+        <v>5.375156545575038</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>5.374343011839795</v>
+        <v>5.374343000103621</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>5.373508814600129</v>
+        <v>5.373508802945005</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>5.372653451167036</v>
+        <v>5.372653439594407</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>5.371776394722215</v>
+        <v>5.371776383233544</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>5.370877105865449</v>
+        <v>5.37087709446222</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>5.369955032341723</v>
+        <v>5.369955021025438</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>5.369009608763899</v>
+        <v>5.369009597536082</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>5.368040256330946</v>
+        <v>5.368040245193139</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>5.367046382541744</v>
+        <v>5.367046371495508</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>5.366027380904486</v>
+        <v>5.366027369951402</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>5.364982630641715</v>
+        <v>5.364982619783384</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>5.363911496391021</v>
+        <v>5.363911485629062</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>5.362813327901448</v>
+        <v>5.362813317237501</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>5.361687459725675</v>
+        <v>5.361687449161397</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>5.360533210908009</v>
+        <v>5.360533200445077</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>5.359349884668287</v>
+        <v>5.359349874308396</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>5.358136768081755</v>
+        <v>5.358136757826619</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>5.356893131755011</v>
+        <v>5.356893121606363</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>5.355618229498131</v>
+        <v>5.355618219457722</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>5.354311297993077</v>
+        <v>5.354311288062673</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>5.352971556458511</v>
+        <v>5.3529715466399</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>5.35159820631118</v>
+        <v>5.351598196606163</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>5.350190430823985</v>
+        <v>5.350190421234381</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>5.348747394780941</v>
+        <v>5.348747385308587</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>5.347268244129179</v>
+        <v>5.347268234775928</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>5.345752105628208</v>
+        <v>5.345752096395926</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>5.344198086496636</v>
+        <v>5.344198077387208</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>5.342605274056603</v>
+        <v>5.342605265071924</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>5.340972735376146</v>
+        <v>5.340972726518129</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>5.339299516909797</v>
+        <v>5.339299508180368</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>5.337584644137685</v>
+        <v>5.33758463553878</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>5.335827121203449</v>
+        <v>5.33582711273702</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>5.334025930551312</v>
+        <v>5.33402592221932</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>5.332180032562658</v>
+        <v>5.332180024367075</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>5.330288365192486</v>
+        <v>5.330288357135295</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>5.328349843606173</v>
+        <v>5.328349835689365</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>5.326363359816931</v>
+        <v>5.326363352042507</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>5.324327782324467</v>
+        <v>5.324327774694435</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>5.322241955755293</v>
+        <v>5.322241948271667</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>5.320104700505214</v>
+        <v>5.320104693170014</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>5.31791481238455</v>
+        <v>5.317914805199798</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>5.315671062266652</v>
+        <v>5.315671055234377</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>5.313372195740337</v>
+        <v>5.313372188862568</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>5.31101693276688</v>
+        <v>5.311016926045645</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>5.308603967342242</v>
+        <v>5.308603960779571</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>5.30613196716526</v>
+        <v>5.306131960763182</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>5.303599573312544</v>
+        <v>5.303599567073083</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>5.301005399920881</v>
+        <v>5.301005393846056</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>5.298348033877975</v>
+        <v>5.2983480279698</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>5.295626034522412</v>
+        <v>5.295626028782891</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>5.292837933353751</v>
+        <v>5.292837927784882</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>5.289982233753726</v>
+        <v>5.289982228357493</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>5.287057410719545</v>
+        <v>5.28705740549792</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>5.284061910610365</v>
+        <v>5.284061905565302</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>5.280994150908022</v>
+        <v>5.280994146041463</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>5.277852519993197</v>
+        <v>5.277852515307062</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>5.274635376938193</v>
+        <v>5.27463537243438</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>5.271341051317592</v>
+        <v>5.271341046997979</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>5.267967843038102</v>
+        <v>5.267967838904539</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>5.264514022188933</v>
+        <v>5.264514018243241</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>5.260977828914133</v>
+        <v>5.260977825158107</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>5.257357473308353</v>
+        <v>5.25735746974375</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>5.25365113533754</v>
+        <v>5.253651131966084</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>5.249856964786161</v>
+        <v>5.249856961609538</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>5.245973081232589</v>
+        <v>5.245973078252444</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>5.241997574054323</v>
+        <v>5.241997571272257</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>5.237928502464812</v>
+        <v>5.237928499882379</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>5.233763895583682</v>
+        <v>5.233763893202388</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>5.229501752542214</v>
+        <v>5.229501750363511</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>5.22514004262601</v>
+        <v>5.225140040651294</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>5.2206767054568</v>
+        <v>5.220676703687407</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>5.216109651215435</v>
+        <v>5.216109649652641</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>5.211436760908138</v>
+        <v>5.211436759553152</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>5.206655886678141</v>
+        <v>5.206655885532101</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>5.201764852164903</v>
+        <v>5.201764851228876</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>5.196761452913138</v>
+        <v>5.196761452188113</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>5.191643456833924</v>
+        <v>5.191643456320811</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>5.186408604720234</v>
+        <v>5.186408604419859</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>5.181054610819236</v>
+        <v>5.181054610732336</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>5.175579163463767</v>
+        <v>5.175579163590987</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>5.169979925765428</v>
+        <v>5.169979926107319</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>5.164254536371759</v>
+        <v>5.164254536928769</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>5.158400610289973</v>
+        <v>5.158400611062447</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>5.152415739779783</v>
+        <v>5.152415740767958</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>5.14629749531783</v>
+        <v>5.146297496521832</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>5.140043426636253</v>
+        <v>5.14004342805609</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>5.133651063837931</v>
+        <v>5.13365106547349</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>5.127117918590937</v>
+        <v>5.127117920441978</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>5.120441485404704</v>
+        <v>5.12044148747086</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>5.113619242990418</v>
+        <v>5.113619245271186</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>5.106648655708088</v>
+        <v>5.106648658202828</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>5.099527175102715</v>
+        <v>5.099527177810645</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>5.09225224153195</v>
+        <v>5.092252244452138</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>5.084821285887529</v>
+        <v>5.084821289018893</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>5.077231731412745</v>
+        <v>5.077231734754046</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>5.069480995618091</v>
+        <v>5.069480999167932</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>5.061566492297147</v>
+        <v>5.061566496053966</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>5.053485633644638</v>
+        <v>5.053485637606704</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>5.045235832478486</v>
+        <v>5.045235836643894</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>5.036814504567528</v>
+        <v>5.036814508934198</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>5.028219071066429</v>
+        <v>5.028219075632101</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>5.019446961059118</v>
+        <v>5.019446965821344</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>5.010495614211912</v>
+        <v>5.010495619168061</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>5.001362483537287</v>
+        <v>5.001362488684531</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>4.992045038268998</v>
+        <v>4.992045043604318</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>4.982540766849047</v>
+        <v>4.982540772369223</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>4.972847180026712</v>
+        <v>4.972847185728324</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>4.962961814069576</v>
+        <v>4.962961819949</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>4.952882234086195</v>
+        <v>4.952882240139598</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>4.942606037459713</v>
+        <v>4.942606043683054</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>4.932130857391431</v>
+        <v>4.932130863780456</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>4.921454366552906</v>
+        <v>4.92145437310315</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>4.910574280844868</v>
+        <v>4.910574287551649</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>4.899488363260748</v>
+        <v>4.89948837011917</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>4.888194427852292</v>
+        <v>4.888194434857238</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>4.876690343794187</v>
+        <v>4.876690350940325</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>4.8649740395443</v>
+        <v>4.864974046826079</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>4.853043507095521</v>
+        <v>4.853043514507172</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>4.840896806314833</v>
+        <v>4.84089681385037</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>4.828532069364639</v>
+        <v>4.828532077017859</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>4.815947505200907</v>
+        <v>4.815947512965392</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>4.803141404142149</v>
+        <v>4.803141412011267</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>4.79011214250268</v>
+        <v>4.79011215046959</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>4.776858187283105</v>
+        <v>4.776858195340756</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>4.763378100910353</v>
+        <v>4.763378109051491</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>4.749670546019067</v>
+        <v>4.749670554236235</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>4.735734290265553</v>
+        <v>4.735734298551098</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>4.721568211164931</v>
+        <v>4.721568219511011</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>4.707171300941569</v>
+        <v>4.707171309340152</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>4.692542671382292</v>
+        <v>4.69254267982517</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>4.677681558681334</v>
+        <v>4.677681567160123</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>4.662587328265424</v>
+        <v>4.662587336771576</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>4.647259479586889</v>
+        <v>4.647259488111697</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>4.631697650872125</v>
+        <v>4.631697659406732</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>4.615901623812312</v>
+        <v>4.61590163234772</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>4.599871328182775</v>
+        <v>4.599871336709858</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>4.58360684637696</v>
+        <v>4.583606854886471</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>4.567108417840592</v>
+        <v>4.567108426323172</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>4.550376443391213</v>
+        <v>4.550376451837407</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>4.533411489407995</v>
+        <v>4.533411497808263</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>4.516214291876429</v>
+        <v>4.516214300221158</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>4.498785760272265</v>
+        <v>4.498785768551781</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>4.481126981268933</v>
+        <v>4.481126989473517</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>4.463239222252536</v>
+        <v>4.463239230372438</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>4.445123934628468</v>
+        <v>4.445123942653923</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>4.426782756903735</v>
+        <v>4.426782764824975</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>4.408217517529126</v>
+        <v>4.4082175253364</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>4.389430237485549</v>
+        <v>4.389430245169136</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>4.370423132599088</v>
+        <v>4.370423140149319</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>4.351198615569642</v>
+        <v>4.35119862297691</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>4.331759297698381</v>
+        <v>4.331759304953163</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>4.312107990299769</v>
+        <v>4.312107997392643</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>4.292247705784422</v>
+        <v>4.292247712706088</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>4.272181658399738</v>
+        <v>4.272181665141031</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>4.251913264615932</v>
+        <v>4.251913271167844</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>4.231446143145939</v>
+        <v>4.231446149499636</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>4.210784114588544</v>
+        <v>4.210784120735387</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>4.189931200685048</v>
+        <v>4.18993120661661</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>4.168891623180836</v>
+        <v>4.168891628888921</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>4.147669802284367</v>
+        <v>4.147669807761027</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>4.126270354717261</v>
+        <v>4.12627035995482</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>4.104698091350477</v>
+        <v>4.104698096341544</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>4.082958014422859</v>
+        <v>4.082958019160346</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>4.061055314339756</v>
+        <v>4.061055318816898</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>4.038995366050856</v>
+        <v>4.03899537026123</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>4.01678372500785</v>
+        <v>4.016783728945385</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>3.994426122704082</v>
+        <v>3.994426126363083</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>3.971928461799905</v>
+        <v>3.971928465175064</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>3.949296810839033</v>
+        <v>3.949296813925447</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>3.926537398562781</v>
+        <v>3.926537401355964</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>3.903656607830686</v>
+        <v>3.903656610326583</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>3.880660969157599</v>
+        <v>3.880660971352603</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>3.857557153878931</v>
+        <v>3.857557155769888</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>3.834351966957268</v>
+        <v>3.834351968541493</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>3.811052339445144</v>
+        <v>3.811052340720432</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>3.787665320620204</v>
+        <v>3.787665321584833</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>3.764198069810444</v>
+        <v>3.764198070463193</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>3.740657847928597</v>
+        <v>3.740657848268744</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>3.717052008735998</v>
+        <v>3.717052008763329</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>3.693387989857533</v>
+        <v>3.693387989572349</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>3.669673303570381</v>
+        <v>3.669673302973499</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>3.645915527390293</v>
+        <v>3.645915526483049</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>3.622122294480117</v>
+        <v>3.622122293264369</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>3.598301283906082</v>
+        <v>3.598301282384209</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>3.574460210768074</v>
+        <v>3.574460208942974</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>3.550606816230728</v>
+        <v>3.550606814105815</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>3.526748857482626</v>
+        <v>3.52674885506183</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>3.502894097651253</v>
+        <v>3.502894094939012</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>3.479050295701518</v>
+        <v>3.479050292702773</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>3.455225196345799</v>
+        <v>3.455225193065987</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>3.431426519993346</v>
+        <v>3.43142651643839</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>3.407661952766741</v>
+        <v>3.407661948943044</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>3.383939136612772</v>
+        <v>3.383939132527204</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>3.36026565953463</v>
+        <v>3.360265655194515</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>3.336649045971784</v>
+        <v>3.336649041384891</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>3.313096747353187</v>
+        <v>3.313096742527713</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>3.289616132848653</v>
+        <v>3.289616127793211</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>3.26621448034234</v>
+        <v>3.266214475065942</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>3.242898967651244</v>
+        <v>3.242898962163285</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>3.219676664010484</v>
+        <v>3.219676658320724</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>3.19655452184597</v>
+        <v>3.196554515964519</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>3.173539368853731</v>
+        <v>3.173539362791027</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>3.150637900403849</v>
+        <v>3.150637894170641</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>3.127856672285478</v>
+        <v>3.127856665892807</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>3.105202093808017</v>
+        <v>3.105202087267193</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>3.082680421271898</v>
+        <v>3.082680414594483</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>3.060297751820981</v>
+        <v>3.060297745018766</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>3.038060017686895</v>
+        <v>3.038060010771879</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>3.01597298083412</v>
+        <v>3.015972973818491</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>2.994042228012976</v>
+        <v>2.994042220909087</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>2.972273166226091</v>
+        <v>2.972273159046438</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>2.950671018612337</v>
+        <v>2.950671011369542</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>2.92924082075068</v>
+        <v>2.929240813457463</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>2.907987417384801</v>
+        <v>2.907987410053964</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>2.886915459567919</v>
+        <v>2.886915452212324</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>2.866029402225734</v>
+        <v>2.866029394858279</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>2.845333502134044</v>
+        <v>2.845333494767647</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>2.824831816306233</v>
+        <v>2.824831808953808</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>2.804528200784545</v>
+        <v>2.804528193458983</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>2.784426309827849</v>
+        <v>2.784426302542</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>2.764529595487465</v>
+        <v>2.764529588254117</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>2.744841307561546</v>
+        <v>2.744841300393409</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>2.725364493917528</v>
+        <v>2.725364486827215</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>2.706102001171264</v>
+        <v>2.706101994171271</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>2.687056475710611</v>
+        <v>2.687056468813307</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>2.668230365050541</v>
+        <v>2.668230358268145</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>2.649625919506134</v>
+        <v>2.649625912850703</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>2.631245194169299</v>
+        <v>2.631245187652715</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>2.613090051174539</v>
+        <v>2.613090044808489</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>2.595162162238684</v>
+        <v>2.595162156034656</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>2.577463011459201</v>
+        <v>2.577463005428465</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>2.559993898355414</v>
+        <v>2.55999389250901</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>2.542755941136824</v>
+        <v>2.542755935485555</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>2.525750080182612</v>
+        <v>2.525750074737033</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>2.508977081716364</v>
+        <v>2.50897707648677</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>2.492437541660117</v>
+        <v>2.492437536656538</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>2.476131889651908</v>
+        <v>2.476131884884096</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>2.460060393211182</v>
+        <v>2.460060388688612</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>2.444223162036621</v>
+        <v>2.444223157768477</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>2.428620152421225</v>
+        <v>2.428620148416397</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>2.413251171769781</v>
+        <v>2.413251168036863</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>2.398115883204246</v>
+        <v>2.398115879751527</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>2.383213810242894</v>
+        <v>2.383213807078358</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>2.36854434153961</v>
+        <v>2.368544338670933</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>2.354106735670065</v>
+        <v>2.354106733104609</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>2.339900125952069</v>
+        <v>2.339900123696886</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>2.325923525287887</v>
+        <v>2.325923523349716</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>2.312175831016815</v>
+        <v>2.312175829402079</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>2.298655829766871</v>
+        <v>2.298655828481681</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>2.285362202295028</v>
+        <v>2.285362201345179</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>2.272293528305926</v>
+        <v>2.272293527696907</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>2.259448291239654</v>
+        <v>2.25944829097664</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>2.246824883019661</v>
+        <v>2.246824883107521</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>2.234421608752533</v>
+        <v>2.234421609195828</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>2.222236691371843</v>
+        <v>2.222236692174838</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>2.210268276218929</v>
+        <v>2.210268277385586</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>2.198514435553944</v>
+        <v>2.198514437087933</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>2.186973172991109</v>
+        <v>2.186973174895808</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>2.175642427852615</v>
+        <v>2.175642430131116</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>2.164520079436155</v>
+        <v>2.16452008209127</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>2.153603951191561</v>
+        <v>2.153603954225825</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>2.142891814802526</v>
+        <v>2.142891818218204</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>2.132381394169848</v>
+        <v>2.132381397968941</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>2.122070369293131</v>
+        <v>2.122070373477379</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>2.111956380048251</v>
+        <v>2.11195638461914</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>2.1020370298584</v>
+        <v>2.102037034817169</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>2.092309889256838</v>
+        <v>2.092309894604485</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>2.082772499339941</v>
+        <v>2.082772505077229</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>2.073422375109441</v>
+        <v>2.073422381236903</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>2.064257008703124</v>
+        <v>2.064257015221074</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>2.055273872513574</v>
+        <v>2.055273879422107</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>2.046470422194838</v>
+        <v>2.046470429493841</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>2.037844099557196</v>
+        <v>2.037844107246355</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>2.02939233535047</v>
+        <v>2.029392343429272</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>2.021112551936541</v>
+        <v>2.021112560404288</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>2.013002165852012</v>
+        <v>2.013002174707822</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>2.005058590262103</v>
+        <v>2.005058599504917</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>1.997279237307128</v>
+        <v>1.997279246935718</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>1.989661520343006</v>
+        <v>1.989661530355984</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>1.982202856077495</v>
+        <v>1.982202866473314</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>1.974900666603898</v>
+        <v>1.974900677380863</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>1.967752381334202</v>
+        <v>1.967752392490474</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>1.96075543883366</v>
+        <v>1.960755450367262</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>1.953907288558957</v>
+        <v>1.953907300467784</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>1.947205392502198</v>
+        <v>1.947205404784018</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>1.940647226742998</v>
+        <v>1.940647239395461</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>1.934230282911051</v>
+        <v>1.934230295931693</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>1.927952069561586</v>
+        <v>1.927952082947839</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>1.921810113466171</v>
+        <v>1.921810127215363</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>1.915801960821359</v>
+        <v>1.915801974930723</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>1.909925178377672</v>
+        <v>1.909925192844352</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>1.904177354491483</v>
+        <v>1.904177369312536</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>1.898556100102293</v>
+        <v>1.898556115274699</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>1.893059049637972</v>
+        <v>1.893059065158634</v>
       </c>
     </row>
   </sheetData>

--- a/Data/regression_data/PpD/regression_PpD.xlsx
+++ b/Data/regression_data/PpD/regression_PpD.xlsx
@@ -450,7 +450,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>5.406317916928036</v>
+        <v>5.406317932598492</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>5.406302454259599</v>
+        <v>5.406302469926878</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>5.406286592160261</v>
+        <v>5.406286607824292</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>5.406270320315464</v>
+        <v>5.406270335976174</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>5.406253628144478</v>
+        <v>5.406253643801794</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>5.406236504793548</v>
+        <v>5.406236520447392</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>5.40621893912885</v>
+        <v>5.406218954779145</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>5.406200919729285</v>
+        <v>5.406200935375951</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>5.406182434879067</v>
+        <v>5.406182450522024</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>5.406163472560143</v>
+        <v>5.406163488199308</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>5.406144020444398</v>
+        <v>5.406144036079686</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>5.406124065885672</v>
+        <v>5.406124081516996</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>5.406103595911568</v>
+        <v>5.40610361153884</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>5.406082597215052</v>
+        <v>5.406082612838181</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>5.406061056145835</v>
+        <v>5.406061071764729</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>5.406038958701533</v>
+        <v>5.406038974316097</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>5.406016290518605</v>
+        <v>5.406016306128744</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>5.405993036863054</v>
+        <v>5.405993052468669</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>5.405969182620893</v>
+        <v>5.405969198221882</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>5.40594471228836</v>
+        <v>5.405944727884621</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>5.405919609961891</v>
+        <v>5.405919625553319</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>5.405893859327832</v>
+        <v>5.40589387491432</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>5.405867443651887</v>
+        <v>5.405867459233325</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>5.405840345768292</v>
+        <v>5.405840361344569</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>5.405812548068723</v>
+        <v>5.405812563639723</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>5.405784032490906</v>
+        <v>5.405784048056513</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>5.405754780506945</v>
+        <v>5.405754796067041</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>5.405724773111351</v>
+        <v>5.405724788665812</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>5.405693990808758</v>
+        <v>5.40569400635746</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>5.40566241360133</v>
+        <v>5.405662429144146</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>5.405630020975846</v>
+        <v>5.405630036512647</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>5.405596791890455</v>
+        <v>5.405596807421107</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>5.405562704761089</v>
+        <v>5.405562720285456</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>5.40552773744753</v>
+        <v>5.405527752965474</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>5.405491867239126</v>
+        <v>5.405491882750507</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>5.405455070840137</v>
+        <v>5.405455086344809</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>5.405417324354706</v>
+        <v>5.405417339852521</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>5.405378603271451</v>
+        <v>5.40537861876226</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>5.405338882447664</v>
+        <v>5.405338897931311</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>5.405298136093099</v>
+        <v>5.405298151569428</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>5.405256337753357</v>
+        <v>5.405256353222209</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>5.405213460292845</v>
+        <v>5.405213475754055</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>5.405169475877291</v>
+        <v>5.405169491330692</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>5.405124355955832</v>
+        <v>5.405124371401252</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>5.405078071242625</v>
+        <v>5.40507808667989</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>5.40503059169801</v>
+        <v>5.405030607126942</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>5.404981886509179</v>
+        <v>5.404981901929596</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>5.404931924070363</v>
+        <v>5.404931939482079</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>5.404880671962507</v>
+        <v>5.404880687365334</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>5.40482809693244</v>
+        <v>5.404828112326182</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>5.404774164871501</v>
+        <v>5.404774180255962</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>5.404718840793637</v>
+        <v>5.404718856168616</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>5.404662088812941</v>
+        <v>5.40466210417823</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>5.404603872120609</v>
+        <v>5.404603887475998</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>5.404544152961336</v>
+        <v>5.40454416830661</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>5.404482892609089</v>
+        <v>5.40448290794403</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>5.404420051342286</v>
+        <v>5.40442006666667</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>5.404355588418338</v>
+        <v>5.404355603731935</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>5.404289462047545</v>
+        <v>5.404289477350124</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>5.404221629366343</v>
+        <v>5.404221644657665</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>5.40415204640986</v>
+        <v>5.404152061689681</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>5.404080668083791</v>
+        <v>5.404080683351865</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>5.404007448135565</v>
+        <v>5.404007463391638</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>5.40393233912477</v>
+        <v>5.403932354368584</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>5.403855292392848</v>
+        <v>5.403855307624139</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>5.403776258032021</v>
+        <v>5.40377627325052</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>5.403695184853436</v>
+        <v>5.403695200058869</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>5.403612020354509</v>
+        <v>5.403612035546595</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>5.403526710685443</v>
+        <v>5.403526725863896</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>5.403439200614918</v>
+        <v>5.403439215779447</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>5.403349433494909</v>
+        <v>5.403349448645216</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>5.403257351224621</v>
+        <v>5.403257366360402</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>5.403162894213536</v>
+        <v>5.403162909334482</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>5.403066001343513</v>
+        <v>5.403066016449308</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>5.40296660992996</v>
+        <v>5.40296662502028</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>5.402864655682022</v>
+        <v>5.402864670756538</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>5.402760072661784</v>
+        <v>5.402760087720161</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>5.402652793242452</v>
+        <v>5.402652808284347</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>5.402542748065494</v>
+        <v>5.402542763090557</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>5.40242986599671</v>
+        <v>5.402429881004586</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>5.402314074081222</v>
+        <v>5.402314089071546</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>5.402195297497324</v>
+        <v>5.402195312469726</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>5.402073459509213</v>
+        <v>5.402073474463314</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>5.401948481418525</v>
+        <v>5.40194849635394</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>5.401820282514691</v>
+        <v>5.401820297431025</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>5.401688780024042</v>
+        <v>5.401688794920894</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>5.401553889057688</v>
+        <v>5.401553903934649</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>5.401415522558076</v>
+        <v>5.40141553741473</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>5.401273591244263</v>
+        <v>5.401273606080183</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>5.40112800355582</v>
+        <v>5.401128018370572</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>5.400978665595366</v>
+        <v>5.400978680388508</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>5.400825481069693</v>
+        <v>5.400825495840772</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>5.400668351229446</v>
+        <v>5.400668365978004</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>5.400507174807326</v>
+        <v>5.400507189532894</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>5.400341847954786</v>
+        <v>5.400341862656885</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>5.400172264177175</v>
+        <v>5.400172278855318</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>5.399998314267315</v>
+        <v>5.399998328921005</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>5.39981988623745</v>
+        <v>5.39981990086618</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>5.399636865249548</v>
+        <v>5.399636879852801</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>5.399449133543913</v>
+        <v>5.399449148121165</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>5.399256570366074</v>
+        <v>5.399256584916787</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>5.399059051891898</v>
+        <v>5.399059066415528</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>5.398856451150911</v>
+        <v>5.398856465646898</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>5.398648637947758</v>
+        <v>5.398648652415536</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>5.398435478781797</v>
+        <v>5.398435493220787</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>5.398216836764742</v>
+        <v>5.398216851174356</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>5.397992571536363</v>
+        <v>5.397992585915998</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>5.397762539178149</v>
+        <v>5.397762553527197</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>5.397526592124941</v>
+        <v>5.397526606442775</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>5.397284579074437</v>
+        <v>5.397284593360425</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>5.397036344894581</v>
+        <v>5.397036359148076</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>5.396781730528744</v>
+        <v>5.396781744749086</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>5.396520572898673</v>
+        <v>5.396520587085193</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>5.396252704805166</v>
+        <v>5.396252718957179</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>5.395977954826401</v>
+        <v>5.395977968943212</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>5.395696147213908</v>
+        <v>5.395696161294809</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>5.395407101786092</v>
+        <v>5.395407115830361</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>5.395110633819297</v>
+        <v>5.3951106478262</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>5.394806553936337</v>
+        <v>5.394806567905124</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>5.394494667992447</v>
+        <v>5.394494681922358</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>5.394174776958618</v>
+        <v>5.394174790848878</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>5.393846676802239</v>
+        <v>5.39384669065206</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>5.393510158365019</v>
+        <v>5.393510172173597</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>5.393165007238117</v>
+        <v>5.393165021004636</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>5.392811003634445</v>
+        <v>5.392811017358071</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>5.392447922258064</v>
+        <v>5.392447935937953</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>5.39207553217066</v>
+        <v>5.392075545805949</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>5.391693596654995</v>
+        <v>5.391693610244809</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>5.391301873075326</v>
+        <v>5.391301886618773</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>5.390900112734708</v>
+        <v>5.39090012623088</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>5.390488060729131</v>
+        <v>5.390488074177107</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>5.390065455798444</v>
+        <v>5.390065469197285</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>5.389632030174011</v>
+        <v>5.389632043522763</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>5.389187509423021</v>
+        <v>5.389187522720714</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>5.388731612289437</v>
+        <v>5.388731625535084</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>5.388264050531489</v>
+        <v>5.388264063724087</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>5.387784528755678</v>
+        <v>5.387784541894208</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>5.387292744247239</v>
+        <v>5.387292757330663</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>5.386788386796989</v>
+        <v>5.386788399824252</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>5.386271138524522</v>
+        <v>5.386271151494554</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>5.385740673697701</v>
+        <v>5.385740686609415</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>5.385196658548376</v>
+        <v>5.385196671400664</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>5.384638751084292</v>
+        <v>5.384638763876032</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>5.38406660089713</v>
+        <v>5.384066613627179</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>5.383479848966627</v>
+        <v>5.383479861633826</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>5.382878127460737</v>
+        <v>5.382878140063909</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>5.382261059531773</v>
+        <v>5.38226107206972</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>5.381628259108485</v>
+        <v>5.381628271579994</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>5.380979330684044</v>
+        <v>5.380979343087881</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>5.380313869099861</v>
+        <v>5.380313881434774</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>5.379631459325233</v>
+        <v>5.379631471589952</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>5.378931676232748</v>
+        <v>5.378931688425983</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>5.378214084369427</v>
+        <v>5.378214096489869</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>5.377478237723568</v>
+        <v>5.377478249769889</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>5.376723679487254</v>
+        <v>5.376723691458108</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>5.375949941814505</v>
+        <v>5.375949953708525</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>5.375156545575038</v>
+        <v>5.375156557390837</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>5.374343000103621</v>
+        <v>5.374343011839795</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>5.373508802945005</v>
+        <v>5.373508814600129</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>5.372653439594407</v>
+        <v>5.372653451167036</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>5.371776383233544</v>
+        <v>5.371776394722215</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>5.37087709446222</v>
+        <v>5.370877105865449</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>5.369955021025438</v>
+        <v>5.369955032341723</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>5.369009597536082</v>
+        <v>5.369009608763899</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>5.368040245193139</v>
+        <v>5.368040256330946</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>5.367046371495508</v>
+        <v>5.367046382541744</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>5.366027369951402</v>
+        <v>5.366027380904486</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>5.364982619783384</v>
+        <v>5.364982630641715</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>5.363911485629062</v>
+        <v>5.363911496391021</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>5.362813317237501</v>
+        <v>5.362813327901448</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>5.361687449161397</v>
+        <v>5.361687459725675</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>5.360533200445077</v>
+        <v>5.360533210908009</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>5.359349874308396</v>
+        <v>5.359349884668287</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>5.358136757826619</v>
+        <v>5.358136768081755</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>5.356893121606363</v>
+        <v>5.356893131755011</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>5.355618219457722</v>
+        <v>5.355618229498131</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>5.354311288062673</v>
+        <v>5.354311297993077</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>5.3529715466399</v>
+        <v>5.352971556458511</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>5.351598196606163</v>
+        <v>5.35159820631118</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>5.350190421234381</v>
+        <v>5.350190430823985</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>5.348747385308587</v>
+        <v>5.348747394780941</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>5.347268234775928</v>
+        <v>5.347268244129179</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>5.345752096395926</v>
+        <v>5.345752105628208</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>5.344198077387208</v>
+        <v>5.344198086496636</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>5.342605265071924</v>
+        <v>5.342605274056603</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>5.340972726518129</v>
+        <v>5.340972735376146</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>5.339299508180368</v>
+        <v>5.339299516909797</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>5.33758463553878</v>
+        <v>5.337584644137685</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>5.33582711273702</v>
+        <v>5.335827121203449</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>5.33402592221932</v>
+        <v>5.334025930551312</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>5.332180024367075</v>
+        <v>5.332180032562658</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>5.330288357135295</v>
+        <v>5.330288365192486</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>5.328349835689365</v>
+        <v>5.328349843606173</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>5.326363352042507</v>
+        <v>5.326363359816931</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>5.324327774694435</v>
+        <v>5.324327782324467</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>5.322241948271667</v>
+        <v>5.322241955755293</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>5.320104693170014</v>
+        <v>5.320104700505214</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>5.317914805199798</v>
+        <v>5.31791481238455</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>5.315671055234377</v>
+        <v>5.315671062266652</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>5.313372188862568</v>
+        <v>5.313372195740337</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>5.311016926045645</v>
+        <v>5.31101693276688</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>5.308603960779571</v>
+        <v>5.308603967342242</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>5.306131960763182</v>
+        <v>5.30613196716526</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>5.303599567073083</v>
+        <v>5.303599573312544</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>5.301005393846056</v>
+        <v>5.301005399920881</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>5.2983480279698</v>
+        <v>5.298348033877975</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>5.295626028782891</v>
+        <v>5.295626034522412</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>5.292837927784882</v>
+        <v>5.292837933353751</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>5.289982228357493</v>
+        <v>5.289982233753726</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>5.28705740549792</v>
+        <v>5.287057410719545</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>5.284061905565302</v>
+        <v>5.284061910610365</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>5.280994146041463</v>
+        <v>5.280994150908022</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>5.277852515307062</v>
+        <v>5.277852519993197</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>5.27463537243438</v>
+        <v>5.274635376938193</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>5.271341046997979</v>
+        <v>5.271341051317592</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>5.267967838904539</v>
+        <v>5.267967843038102</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>5.264514018243241</v>
+        <v>5.264514022188933</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>5.260977825158107</v>
+        <v>5.260977828914133</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>5.25735746974375</v>
+        <v>5.257357473308353</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>5.253651131966084</v>
+        <v>5.25365113533754</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>5.249856961609538</v>
+        <v>5.249856964786161</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>5.245973078252444</v>
+        <v>5.245973081232589</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>5.241997571272257</v>
+        <v>5.241997574054323</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>5.237928499882379</v>
+        <v>5.237928502464812</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>5.233763893202388</v>
+        <v>5.233763895583682</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>5.229501750363511</v>
+        <v>5.229501752542214</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>5.225140040651294</v>
+        <v>5.22514004262601</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>5.220676703687407</v>
+        <v>5.2206767054568</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>5.216109649652641</v>
+        <v>5.216109651215435</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>5.211436759553152</v>
+        <v>5.211436760908138</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>5.206655885532101</v>
+        <v>5.206655886678141</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>5.201764851228876</v>
+        <v>5.201764852164903</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>5.196761452188113</v>
+        <v>5.196761452913138</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>5.191643456320811</v>
+        <v>5.191643456833924</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>5.186408604419859</v>
+        <v>5.186408604720234</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>5.181054610732336</v>
+        <v>5.181054610819236</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>5.175579163590987</v>
+        <v>5.175579163463767</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>5.169979926107319</v>
+        <v>5.169979925765428</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>5.164254536928769</v>
+        <v>5.164254536371759</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>5.158400611062447</v>
+        <v>5.158400610289973</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>5.152415740767958</v>
+        <v>5.152415739779783</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>5.146297496521832</v>
+        <v>5.14629749531783</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>5.14004342805609</v>
+        <v>5.140043426636253</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>5.13365106547349</v>
+        <v>5.133651063837931</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>5.127117920441978</v>
+        <v>5.127117918590937</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>5.12044148747086</v>
+        <v>5.120441485404704</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>5.113619245271186</v>
+        <v>5.113619242990418</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>5.106648658202828</v>
+        <v>5.106648655708088</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>5.099527177810645</v>
+        <v>5.099527175102715</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>5.092252244452138</v>
+        <v>5.09225224153195</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>5.084821289018893</v>
+        <v>5.084821285887529</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>5.077231734754046</v>
+        <v>5.077231731412745</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>5.069480999167932</v>
+        <v>5.069480995618091</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>5.061566496053966</v>
+        <v>5.061566492297147</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>5.053485637606704</v>
+        <v>5.053485633644638</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>5.045235836643894</v>
+        <v>5.045235832478486</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>5.036814508934198</v>
+        <v>5.036814504567528</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>5.028219075632101</v>
+        <v>5.028219071066429</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>5.019446965821344</v>
+        <v>5.019446961059118</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>5.010495619168061</v>
+        <v>5.010495614211912</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>5.001362488684531</v>
+        <v>5.001362483537287</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>4.992045043604318</v>
+        <v>4.992045038268998</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>4.982540772369223</v>
+        <v>4.982540766849047</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>4.972847185728324</v>
+        <v>4.972847180026712</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>4.962961819949</v>
+        <v>4.962961814069576</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>4.952882240139598</v>
+        <v>4.952882234086195</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>4.942606043683054</v>
+        <v>4.942606037459713</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>4.932130863780456</v>
+        <v>4.932130857391431</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>4.92145437310315</v>
+        <v>4.921454366552906</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>4.910574287551649</v>
+        <v>4.910574280844868</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>4.89948837011917</v>
+        <v>4.899488363260748</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>4.888194434857238</v>
+        <v>4.888194427852292</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>4.876690350940325</v>
+        <v>4.876690343794187</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>4.864974046826079</v>
+        <v>4.8649740395443</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>4.853043514507172</v>
+        <v>4.853043507095521</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>4.84089681385037</v>
+        <v>4.840896806314833</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>4.828532077017859</v>
+        <v>4.828532069364639</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>4.815947512965392</v>
+        <v>4.815947505200907</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>4.803141412011267</v>
+        <v>4.803141404142149</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>4.79011215046959</v>
+        <v>4.79011214250268</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>4.776858195340756</v>
+        <v>4.776858187283105</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>4.763378109051491</v>
+        <v>4.763378100910353</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>4.749670554236235</v>
+        <v>4.749670546019067</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>4.735734298551098</v>
+        <v>4.735734290265553</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>4.721568219511011</v>
+        <v>4.721568211164931</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>4.707171309340152</v>
+        <v>4.707171300941569</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>4.69254267982517</v>
+        <v>4.692542671382292</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>4.677681567160123</v>
+        <v>4.677681558681334</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>4.662587336771576</v>
+        <v>4.662587328265424</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>4.647259488111697</v>
+        <v>4.647259479586889</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>4.631697659406732</v>
+        <v>4.631697650872125</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>4.61590163234772</v>
+        <v>4.615901623812312</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>4.599871336709858</v>
+        <v>4.599871328182775</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>4.583606854886471</v>
+        <v>4.58360684637696</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>4.567108426323172</v>
+        <v>4.567108417840592</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>4.550376451837407</v>
+        <v>4.550376443391213</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>4.533411497808263</v>
+        <v>4.533411489407995</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>4.516214300221158</v>
+        <v>4.516214291876429</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>4.498785768551781</v>
+        <v>4.498785760272265</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>4.481126989473517</v>
+        <v>4.481126981268933</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>4.463239230372438</v>
+        <v>4.463239222252536</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>4.445123942653923</v>
+        <v>4.445123934628468</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>4.426782764824975</v>
+        <v>4.426782756903735</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>4.4082175253364</v>
+        <v>4.408217517529126</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>4.389430245169136</v>
+        <v>4.389430237485549</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>4.370423140149319</v>
+        <v>4.370423132599088</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>4.35119862297691</v>
+        <v>4.351198615569642</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>4.331759304953163</v>
+        <v>4.331759297698381</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>4.312107997392643</v>
+        <v>4.312107990299769</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>4.292247712706088</v>
+        <v>4.292247705784422</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>4.272181665141031</v>
+        <v>4.272181658399738</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>4.251913271167844</v>
+        <v>4.251913264615932</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>4.231446149499636</v>
+        <v>4.231446143145939</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>4.210784120735387</v>
+        <v>4.210784114588544</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>4.18993120661661</v>
+        <v>4.189931200685048</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>4.168891628888921</v>
+        <v>4.168891623180836</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>4.147669807761027</v>
+        <v>4.147669802284367</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>4.12627035995482</v>
+        <v>4.126270354717261</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>4.104698096341544</v>
+        <v>4.104698091350477</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>4.082958019160346</v>
+        <v>4.082958014422859</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>4.061055318816898</v>
+        <v>4.061055314339756</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>4.03899537026123</v>
+        <v>4.038995366050856</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>4.016783728945385</v>
+        <v>4.01678372500785</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>3.994426126363083</v>
+        <v>3.994426122704082</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>3.971928465175064</v>
+        <v>3.971928461799905</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>3.949296813925447</v>
+        <v>3.949296810839033</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>3.926537401355964</v>
+        <v>3.926537398562781</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>3.903656610326583</v>
+        <v>3.903656607830686</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>3.880660971352603</v>
+        <v>3.880660969157599</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>3.857557155769888</v>
+        <v>3.857557153878931</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>3.834351968541493</v>
+        <v>3.834351966957268</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>3.811052340720432</v>
+        <v>3.811052339445144</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>3.787665321584833</v>
+        <v>3.787665320620204</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>3.764198070463193</v>
+        <v>3.764198069810444</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>3.740657848268744</v>
+        <v>3.740657847928597</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>3.717052008763329</v>
+        <v>3.717052008735998</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>3.693387989572349</v>
+        <v>3.693387989857533</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>3.669673302973499</v>
+        <v>3.669673303570381</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>3.645915526483049</v>
+        <v>3.645915527390293</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>3.622122293264369</v>
+        <v>3.622122294480117</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>3.598301282384209</v>
+        <v>3.598301283906082</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>3.574460208942974</v>
+        <v>3.574460210768074</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>3.550606814105815</v>
+        <v>3.550606816230728</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>3.52674885506183</v>
+        <v>3.526748857482626</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>3.502894094939012</v>
+        <v>3.502894097651253</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>3.479050292702773</v>
+        <v>3.479050295701518</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>3.455225193065987</v>
+        <v>3.455225196345799</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>3.43142651643839</v>
+        <v>3.431426519993346</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>3.407661948943044</v>
+        <v>3.407661952766741</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>3.383939132527204</v>
+        <v>3.383939136612772</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>3.360265655194515</v>
+        <v>3.36026565953463</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>3.336649041384891</v>
+        <v>3.336649045971784</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>3.313096742527713</v>
+        <v>3.313096747353187</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>3.289616127793211</v>
+        <v>3.289616132848653</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>3.266214475065942</v>
+        <v>3.26621448034234</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>3.242898962163285</v>
+        <v>3.242898967651244</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>3.219676658320724</v>
+        <v>3.219676664010484</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>3.196554515964519</v>
+        <v>3.19655452184597</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>3.173539362791027</v>
+        <v>3.173539368853731</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>3.150637894170641</v>
+        <v>3.150637900403849</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>3.127856665892807</v>
+        <v>3.127856672285478</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>3.105202087267193</v>
+        <v>3.105202093808017</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>3.082680414594483</v>
+        <v>3.082680421271898</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>3.060297745018766</v>
+        <v>3.060297751820981</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>3.038060010771879</v>
+        <v>3.038060017686895</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>3.015972973818491</v>
+        <v>3.01597298083412</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>2.994042220909087</v>
+        <v>2.994042228012976</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>2.972273159046438</v>
+        <v>2.972273166226091</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>2.950671011369542</v>
+        <v>2.950671018612337</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>2.929240813457463</v>
+        <v>2.92924082075068</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>2.907987410053964</v>
+        <v>2.907987417384801</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>2.886915452212324</v>
+        <v>2.886915459567919</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>2.866029394858279</v>
+        <v>2.866029402225734</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>2.845333494767647</v>
+        <v>2.845333502134044</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>2.824831808953808</v>
+        <v>2.824831816306233</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>2.804528193458983</v>
+        <v>2.804528200784545</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>2.784426302542</v>
+        <v>2.784426309827849</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>2.764529588254117</v>
+        <v>2.764529595487465</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>2.744841300393409</v>
+        <v>2.744841307561546</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>2.725364486827215</v>
+        <v>2.725364493917528</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>2.706101994171271</v>
+        <v>2.706102001171264</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>2.687056468813307</v>
+        <v>2.687056475710611</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>2.668230358268145</v>
+        <v>2.668230365050541</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>2.649625912850703</v>
+        <v>2.649625919506134</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>2.631245187652715</v>
+        <v>2.631245194169299</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>2.613090044808489</v>
+        <v>2.613090051174539</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>2.595162156034656</v>
+        <v>2.595162162238684</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>2.577463005428465</v>
+        <v>2.577463011459201</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>2.55999389250901</v>
+        <v>2.559993898355414</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>2.542755935485555</v>
+        <v>2.542755941136824</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>2.525750074737033</v>
+        <v>2.525750080182612</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>2.50897707648677</v>
+        <v>2.508977081716364</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>2.492437536656538</v>
+        <v>2.492437541660117</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>2.476131884884096</v>
+        <v>2.476131889651908</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>2.460060388688612</v>
+        <v>2.460060393211182</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>2.444223157768477</v>
+        <v>2.444223162036621</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>2.428620148416397</v>
+        <v>2.428620152421225</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>2.413251168036863</v>
+        <v>2.413251171769781</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>2.398115879751527</v>
+        <v>2.398115883204246</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>2.383213807078358</v>
+        <v>2.383213810242894</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>2.368544338670933</v>
+        <v>2.36854434153961</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>2.354106733104609</v>
+        <v>2.354106735670065</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>2.339900123696886</v>
+        <v>2.339900125952069</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>2.325923523349716</v>
+        <v>2.325923525287887</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>2.312175829402079</v>
+        <v>2.312175831016815</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>2.298655828481681</v>
+        <v>2.298655829766871</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>2.285362201345179</v>
+        <v>2.285362202295028</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>2.272293527696907</v>
+        <v>2.272293528305926</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>2.25944829097664</v>
+        <v>2.259448291239654</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>2.246824883107521</v>
+        <v>2.246824883019661</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>2.234421609195828</v>
+        <v>2.234421608752533</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>2.222236692174838</v>
+        <v>2.222236691371843</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>2.210268277385586</v>
+        <v>2.210268276218929</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>2.198514437087933</v>
+        <v>2.198514435553944</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>2.186973174895808</v>
+        <v>2.186973172991109</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>2.175642430131116</v>
+        <v>2.175642427852615</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>2.16452008209127</v>
+        <v>2.164520079436155</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>2.153603954225825</v>
+        <v>2.153603951191561</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>2.142891818218204</v>
+        <v>2.142891814802526</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>2.132381397968941</v>
+        <v>2.132381394169848</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>2.122070373477379</v>
+        <v>2.122070369293131</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>2.11195638461914</v>
+        <v>2.111956380048251</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>2.102037034817169</v>
+        <v>2.1020370298584</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>2.092309894604485</v>
+        <v>2.092309889256838</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>2.082772505077229</v>
+        <v>2.082772499339941</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>2.073422381236903</v>
+        <v>2.073422375109441</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>2.064257015221074</v>
+        <v>2.064257008703124</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>2.055273879422107</v>
+        <v>2.055273872513574</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>2.046470429493841</v>
+        <v>2.046470422194838</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>2.037844107246355</v>
+        <v>2.037844099557196</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>2.029392343429272</v>
+        <v>2.02939233535047</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>2.021112560404288</v>
+        <v>2.021112551936541</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>2.013002174707822</v>
+        <v>2.013002165852012</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>2.005058599504917</v>
+        <v>2.005058590262103</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>1.997279246935718</v>
+        <v>1.997279237307128</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>1.989661530355984</v>
+        <v>1.989661520343006</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>1.982202866473314</v>
+        <v>1.982202856077495</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>1.974900677380863</v>
+        <v>1.974900666603898</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>1.967752392490474</v>
+        <v>1.967752381334202</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>1.960755450367262</v>
+        <v>1.96075543883366</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>1.953907300467784</v>
+        <v>1.953907288558957</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>1.947205404784018</v>
+        <v>1.947205392502198</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>1.940647239395461</v>
+        <v>1.940647226742998</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>1.934230295931693</v>
+        <v>1.934230282911051</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>1.927952082947839</v>
+        <v>1.927952069561586</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>1.921810127215363</v>
+        <v>1.921810113466171</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>1.915801974930723</v>
+        <v>1.915801960821359</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>1.909925192844352</v>
+        <v>1.909925178377672</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>1.904177369312536</v>
+        <v>1.904177354491483</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>1.898556115274699</v>
+        <v>1.898556100102293</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>1.893059065158634</v>
+        <v>1.893059049637972</v>
       </c>
     </row>
   </sheetData>
